--- a/Digital Services Request for Proposal/RfP Pack/Schedule 1 - Annex B – Detailed Requirements.xlsx
+++ b/Digital Services Request for Proposal/RfP Pack/Schedule 1 - Annex B – Detailed Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://capgemini-my.sharepoint.com/personal/cristian_boju_capgemini_com/Documents/PROJECTS/recco/Digital Services Request for Proposal/RfP Pack/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1513" documentId="8_{C28093FB-9B4B-4EFE-8382-FEDEF271F4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F626125-0B3E-4B3D-8D30-BAF28EC6BC62}"/>
+  <xr:revisionPtr revIDLastSave="1517" documentId="8_{C28093FB-9B4B-4EFE-8382-FEDEF271F4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB666A71-6890-4BF7-A6C3-B7EB983BB012}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="579" activeTab="1" xr2:uid="{FD386CB3-DA8D-47AA-A135-DDAFB75F60BA}"/>
   </bookViews>
@@ -4958,6 +4958,10 @@
 </namedSheetViews>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5262,8 +5266,8 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView defaultGridColor="0" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView defaultGridColor="0" topLeftCell="A13" colorId="22" zoomScale="75" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="11.5"/>
@@ -5321,7 +5325,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="12">
+    <row r="6" spans="1:7">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -5475,12 +5479,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F350B451-657A-476F-A605-F8E4506FA0A6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -5535,7 +5538,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="26" customFormat="1" ht="56" hidden="1">
+    <row r="2" spans="1:11" s="26" customFormat="1" ht="56">
       <c r="A2" s="34" t="s">
         <v>47</v>
       </c>
@@ -5570,7 +5573,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="26" customFormat="1" ht="56" hidden="1">
+    <row r="3" spans="1:11" s="26" customFormat="1" ht="56">
       <c r="A3" s="34" t="s">
         <v>55</v>
       </c>
@@ -5605,7 +5608,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="26" customFormat="1" ht="56" hidden="1">
+    <row r="4" spans="1:11" s="26" customFormat="1" ht="56">
       <c r="A4" s="34" t="s">
         <v>60</v>
       </c>
@@ -5640,7 +5643,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="26" customFormat="1" ht="84" hidden="1">
+    <row r="5" spans="1:11" s="26" customFormat="1" ht="84">
       <c r="A5" s="34" t="s">
         <v>66</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" ht="42" hidden="1">
+    <row r="9" spans="1:11" s="26" customFormat="1" ht="42">
       <c r="A9" s="34" t="s">
         <v>84</v>
       </c>
@@ -6830,7 +6833,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="23" customFormat="1" ht="112" hidden="1">
+    <row r="39" spans="1:11" s="23" customFormat="1" ht="112">
       <c r="A39" s="34" t="s">
         <v>176</v>
       </c>
@@ -7040,7 +7043,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="45" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A45" s="34" t="s">
         <v>194</v>
       </c>
@@ -7075,7 +7078,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="46" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A46" s="34" t="s">
         <v>197</v>
       </c>
@@ -7110,7 +7113,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="47" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A47" s="34" t="s">
         <v>201</v>
       </c>
@@ -7180,7 +7183,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="23" customFormat="1" ht="118.5" hidden="1" customHeight="1">
+    <row r="49" spans="1:11" s="23" customFormat="1" ht="118.5" customHeight="1">
       <c r="A49" s="34" t="s">
         <v>207</v>
       </c>
@@ -8265,7 +8268,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="80" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A80" s="34" t="s">
         <v>316</v>
       </c>
@@ -8650,7 +8653,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="91" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A91" s="34" t="s">
         <v>355</v>
       </c>
@@ -8685,7 +8688,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="92" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A92" s="34" t="s">
         <v>358</v>
       </c>
@@ -9245,7 +9248,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="23" customFormat="1" ht="122.5" hidden="1" customHeight="1">
+    <row r="108" spans="1:11" s="23" customFormat="1" ht="122.5" customHeight="1">
       <c r="A108" s="34" t="s">
         <v>419</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="111" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A111" s="34" t="s">
         <v>431</v>
       </c>
@@ -9875,7 +9878,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="126" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="126" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A126" s="34" t="s">
         <v>485</v>
       </c>
@@ -9980,7 +9983,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="129" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A129" s="34" t="s">
         <v>492</v>
       </c>
@@ -10015,7 +10018,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="130" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="130" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A130" s="34" t="s">
         <v>497</v>
       </c>
@@ -10050,7 +10053,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="131" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="131" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A131" s="34" t="s">
         <v>500</v>
       </c>
@@ -10085,7 +10088,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="132" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="132" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A132" s="34" t="s">
         <v>503</v>
       </c>
@@ -10120,7 +10123,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="133" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="133" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A133" s="34" t="s">
         <v>506</v>
       </c>
@@ -10155,7 +10158,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="134" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="134" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A134" s="34" t="s">
         <v>509</v>
       </c>
@@ -10190,7 +10193,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="135" spans="1:11" s="23" customFormat="1" ht="154" hidden="1">
+    <row r="135" spans="1:11" s="23" customFormat="1" ht="154">
       <c r="A135" s="34" t="s">
         <v>511</v>
       </c>
@@ -10225,7 +10228,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="136" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A136" s="34" t="s">
         <v>515</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="137" spans="1:11" s="23" customFormat="1" ht="126" hidden="1" customHeight="1">
+    <row r="137" spans="1:11" s="23" customFormat="1" ht="126" customHeight="1">
       <c r="A137" s="34" t="s">
         <v>517</v>
       </c>
@@ -10295,7 +10298,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="138" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="138" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A138" s="34" t="s">
         <v>520</v>
       </c>
@@ -10330,7 +10333,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="139" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="139" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A139" s="34" t="s">
         <v>523</v>
       </c>
@@ -10365,7 +10368,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="140" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="140" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A140" s="34" t="s">
         <v>527</v>
       </c>
@@ -10400,7 +10403,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="141" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="141" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A141" s="34" t="s">
         <v>530</v>
       </c>
@@ -10435,7 +10438,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="142" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A142" s="34" t="s">
         <v>534</v>
       </c>
@@ -10470,7 +10473,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="143" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="143" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A143" s="34" t="s">
         <v>537</v>
       </c>
@@ -10505,7 +10508,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="144" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A144" s="34" t="s">
         <v>540</v>
       </c>
@@ -10540,7 +10543,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="145" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="145" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A145" s="34" t="s">
         <v>545</v>
       </c>
@@ -10575,7 +10578,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="146" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A146" s="34" t="s">
         <v>547</v>
       </c>
@@ -10610,7 +10613,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="147" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A147" s="34" t="s">
         <v>549</v>
       </c>
@@ -10645,7 +10648,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="148" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A148" s="34" t="s">
         <v>552</v>
       </c>
@@ -10680,7 +10683,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="149" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A149" s="34" t="s">
         <v>555</v>
       </c>
@@ -10715,7 +10718,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="150" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A150" s="34" t="s">
         <v>559</v>
       </c>
@@ -10750,7 +10753,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="151" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A151" s="34" t="s">
         <v>562</v>
       </c>
@@ -10785,7 +10788,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="152" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A152" s="34" t="s">
         <v>565</v>
       </c>
@@ -10820,7 +10823,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="153" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="153" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A153" s="34" t="s">
         <v>568</v>
       </c>
@@ -10855,7 +10858,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="154" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="154" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A154" s="34" t="s">
         <v>570</v>
       </c>
@@ -10890,7 +10893,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="155" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A155" s="34" t="s">
         <v>573</v>
       </c>
@@ -10925,7 +10928,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="156" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="156" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A156" s="34" t="s">
         <v>577</v>
       </c>
@@ -10960,7 +10963,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="157" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="157" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A157" s="34" t="s">
         <v>580</v>
       </c>
@@ -10995,7 +10998,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="158" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="158" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A158" s="34" t="s">
         <v>583</v>
       </c>
@@ -11030,7 +11033,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="159" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A159" s="34" t="s">
         <v>586</v>
       </c>
@@ -11065,7 +11068,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="160" spans="1:11" s="23" customFormat="1" ht="171.65" hidden="1" customHeight="1">
+    <row r="160" spans="1:11" s="23" customFormat="1" ht="171.65" customHeight="1">
       <c r="A160" s="34" t="s">
         <v>588</v>
       </c>
@@ -11100,7 +11103,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="161" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="161" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A161" s="34" t="s">
         <v>591</v>
       </c>
@@ -11135,7 +11138,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="162" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="162" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A162" s="34" t="s">
         <v>595</v>
       </c>
@@ -11170,7 +11173,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="163" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="163" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A163" s="34" t="s">
         <v>598</v>
       </c>
@@ -11205,7 +11208,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="164" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="164" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A164" s="34" t="s">
         <v>601</v>
       </c>
@@ -11240,7 +11243,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="165" spans="1:11" s="23" customFormat="1" ht="112" hidden="1">
+    <row r="165" spans="1:11" s="23" customFormat="1" ht="112">
       <c r="A165" s="34" t="s">
         <v>604</v>
       </c>
@@ -11275,7 +11278,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="166" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="166" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A166" s="34" t="s">
         <v>607</v>
       </c>
@@ -11310,7 +11313,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="167" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="167" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A167" s="34" t="s">
         <v>611</v>
       </c>
@@ -11345,7 +11348,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="168" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="168" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A168" s="34" t="s">
         <v>614</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="169" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="169" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A169" s="34" t="s">
         <v>617</v>
       </c>
@@ -11415,7 +11418,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="170" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="170" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A170" s="34" t="s">
         <v>621</v>
       </c>
@@ -11450,7 +11453,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="171" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="171" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A171" s="34" t="s">
         <v>624</v>
       </c>
@@ -11485,7 +11488,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="172" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="172" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A172" s="34" t="s">
         <v>627</v>
       </c>
@@ -11520,7 +11523,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="173" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="173" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A173" s="34" t="s">
         <v>629</v>
       </c>
@@ -11555,7 +11558,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="174" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="174" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A174" s="34" t="s">
         <v>631</v>
       </c>
@@ -11590,7 +11593,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="175" spans="1:11" s="23" customFormat="1" ht="227.15" hidden="1" customHeight="1">
+    <row r="175" spans="1:11" s="23" customFormat="1" ht="227.15" customHeight="1">
       <c r="A175" s="34" t="s">
         <v>633</v>
       </c>
@@ -11625,7 +11628,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="176" spans="1:11" s="23" customFormat="1" ht="168" hidden="1">
+    <row r="176" spans="1:11" s="23" customFormat="1" ht="168">
       <c r="A176" s="34" t="s">
         <v>636</v>
       </c>
@@ -11660,7 +11663,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="177" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="177" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A177" s="34" t="s">
         <v>639</v>
       </c>
@@ -11695,7 +11698,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="178" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="178" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A178" s="34" t="s">
         <v>643</v>
       </c>
@@ -11730,7 +11733,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="179" spans="1:11" s="23" customFormat="1" ht="154" hidden="1">
+    <row r="179" spans="1:11" s="23" customFormat="1" ht="154">
       <c r="A179" s="34" t="s">
         <v>647</v>
       </c>
@@ -11765,7 +11768,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="180" spans="1:11" s="23" customFormat="1" ht="154" hidden="1">
+    <row r="180" spans="1:11" s="23" customFormat="1" ht="154">
       <c r="A180" s="34" t="s">
         <v>650</v>
       </c>
@@ -11800,7 +11803,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="181" spans="1:11" s="23" customFormat="1" ht="126" hidden="1">
+    <row r="181" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A181" s="34" t="s">
         <v>652</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="182" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="182" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A182" s="34" t="s">
         <v>656</v>
       </c>
@@ -11870,7 +11873,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="183" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="183" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A183" s="33" t="s">
         <v>660</v>
       </c>
@@ -11905,7 +11908,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="184" spans="1:11" s="23" customFormat="1" ht="197" hidden="1">
+    <row r="184" spans="1:11" s="23" customFormat="1" ht="197">
       <c r="A184" s="34" t="s">
         <v>665</v>
       </c>
@@ -11940,7 +11943,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="185" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="185" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A185" s="34" t="s">
         <v>669</v>
       </c>
@@ -11975,7 +11978,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="186" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="186" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A186" s="33" t="s">
         <v>674</v>
       </c>
@@ -12010,7 +12013,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="187" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="187" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A187" s="33" t="s">
         <v>678</v>
       </c>
@@ -12045,7 +12048,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="188" spans="1:11" s="23" customFormat="1" ht="189.65" hidden="1" customHeight="1">
+    <row r="188" spans="1:11" s="23" customFormat="1" ht="189.65" customHeight="1">
       <c r="A188" s="33" t="s">
         <v>682</v>
       </c>
@@ -12080,7 +12083,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="189" spans="1:11" s="23" customFormat="1" ht="140" hidden="1">
+    <row r="189" spans="1:11" s="23" customFormat="1" ht="140">
       <c r="A189" s="33" t="s">
         <v>685</v>
       </c>
@@ -12115,7 +12118,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="190" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="190" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A190" s="33" t="s">
         <v>689</v>
       </c>
@@ -12150,7 +12153,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="191" spans="1:11" s="23" customFormat="1" ht="210" hidden="1">
+    <row r="191" spans="1:11" s="23" customFormat="1" ht="210">
       <c r="A191" s="33" t="s">
         <v>694</v>
       </c>
@@ -12185,7 +12188,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="192" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="192" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A192" s="33" t="s">
         <v>696</v>
       </c>
@@ -12220,7 +12223,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="193" spans="1:11" s="23" customFormat="1" ht="126" hidden="1">
+    <row r="193" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A193" s="33" t="s">
         <v>699</v>
       </c>
@@ -12255,7 +12258,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="194" spans="1:11" s="32" customFormat="1" ht="196" hidden="1">
+    <row r="194" spans="1:11" s="32" customFormat="1" ht="196">
       <c r="A194" s="33" t="s">
         <v>703</v>
       </c>
@@ -12290,7 +12293,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="195" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="195" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A195" s="33" t="s">
         <v>706</v>
       </c>
@@ -12325,7 +12328,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="196" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="196" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A196" s="34" t="s">
         <v>708</v>
       </c>
@@ -12360,7 +12363,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="197" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="197" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A197" s="34" t="s">
         <v>713</v>
       </c>
@@ -12395,7 +12398,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="198" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="198" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A198" s="34" t="s">
         <v>716</v>
       </c>
@@ -12430,7 +12433,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="199" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="199" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A199" s="34" t="s">
         <v>719</v>
       </c>
@@ -12465,7 +12468,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="200" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="200" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A200" s="34" t="s">
         <v>723</v>
       </c>
@@ -12500,7 +12503,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="201" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="201" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A201" s="34" t="s">
         <v>726</v>
       </c>
@@ -12535,7 +12538,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="202" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="202" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A202" s="34" t="s">
         <v>730</v>
       </c>
@@ -12710,7 +12713,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="207" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="207" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A207" s="34" t="s">
         <v>743</v>
       </c>
@@ -12815,7 +12818,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="210" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="210" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A210" s="34" t="s">
         <v>752</v>
       </c>
@@ -12850,7 +12853,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="211" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="211" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A211" s="34" t="s">
         <v>756</v>
       </c>
@@ -12885,7 +12888,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="212" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="212" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A212" s="34" t="s">
         <v>758</v>
       </c>
@@ -12920,7 +12923,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="213" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="213" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A213" s="34" t="s">
         <v>761</v>
       </c>
@@ -12955,7 +12958,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="214" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="214" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A214" s="34" t="s">
         <v>763</v>
       </c>
@@ -12990,7 +12993,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="215" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="215" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A215" s="34" t="s">
         <v>766</v>
       </c>
@@ -13025,7 +13028,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="216" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="216" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A216" s="34" t="s">
         <v>768</v>
       </c>
@@ -13060,7 +13063,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="217" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="217" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A217" s="34" t="s">
         <v>772</v>
       </c>
@@ -13095,7 +13098,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="218" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="218" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A218" s="34" t="s">
         <v>774</v>
       </c>
@@ -13130,7 +13133,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="219" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="219" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A219" s="34" t="s">
         <v>777</v>
       </c>
@@ -13165,7 +13168,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="220" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="220" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A220" s="34" t="s">
         <v>780</v>
       </c>
@@ -13200,7 +13203,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="221" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="221" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A221" s="34" t="s">
         <v>783</v>
       </c>
@@ -13235,7 +13238,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="222" spans="1:11" s="23" customFormat="1" ht="140" hidden="1">
+    <row r="222" spans="1:11" s="23" customFormat="1" ht="140">
       <c r="A222" s="34" t="s">
         <v>786</v>
       </c>
@@ -13270,7 +13273,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="223" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="223" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A223" s="34" t="s">
         <v>788</v>
       </c>
@@ -13305,7 +13308,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="224" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="224" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A224" s="34" t="s">
         <v>790</v>
       </c>
@@ -13340,7 +13343,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="225" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="225" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A225" s="34" t="s">
         <v>793</v>
       </c>
@@ -13375,7 +13378,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="226" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="226" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A226" s="34" t="s">
         <v>795</v>
       </c>
@@ -13410,7 +13413,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="227" spans="1:11" s="23" customFormat="1" ht="126" hidden="1">
+    <row r="227" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A227" s="34" t="s">
         <v>797</v>
       </c>
@@ -13445,7 +13448,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="228" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="228" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A228" s="34" t="s">
         <v>799</v>
       </c>
@@ -13480,7 +13483,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="229" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="229" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A229" s="34" t="s">
         <v>802</v>
       </c>
@@ -13515,7 +13518,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="230" spans="1:11" s="23" customFormat="1" ht="269.5" hidden="1" customHeight="1">
+    <row r="230" spans="1:11" s="23" customFormat="1" ht="269.5" customHeight="1">
       <c r="A230" s="34" t="s">
         <v>804</v>
       </c>
@@ -13550,7 +13553,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="231" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="231" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A231" s="34" t="s">
         <v>806</v>
       </c>
@@ -13585,7 +13588,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="232" spans="1:11" s="23" customFormat="1" ht="238" hidden="1">
+    <row r="232" spans="1:11" s="23" customFormat="1" ht="238">
       <c r="A232" s="34" t="s">
         <v>809</v>
       </c>
@@ -13620,7 +13623,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="233" spans="1:11" s="23" customFormat="1" ht="168" hidden="1">
+    <row r="233" spans="1:11" s="23" customFormat="1" ht="168">
       <c r="A233" s="34" t="s">
         <v>811</v>
       </c>
@@ -13655,7 +13658,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="234" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="234" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A234" s="34" t="s">
         <v>814</v>
       </c>
@@ -13690,7 +13693,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="235" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="235" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A235" s="34" t="s">
         <v>817</v>
       </c>
@@ -13760,7 +13763,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="237" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="237" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A237" s="33" t="s">
         <v>821</v>
       </c>
@@ -13795,7 +13798,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="238" spans="1:11" s="23" customFormat="1" ht="168" hidden="1">
+    <row r="238" spans="1:11" s="23" customFormat="1" ht="168">
       <c r="A238" s="33" t="s">
         <v>823</v>
       </c>
@@ -13830,7 +13833,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="239" spans="1:11" s="23" customFormat="1" ht="169" hidden="1">
+    <row r="239" spans="1:11" s="23" customFormat="1" ht="169">
       <c r="A239" s="34" t="s">
         <v>825</v>
       </c>
@@ -13900,7 +13903,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="241" spans="1:11" s="23" customFormat="1" ht="144" hidden="1" customHeight="1">
+    <row r="241" spans="1:11" s="23" customFormat="1" ht="144" customHeight="1">
       <c r="A241" s="34" t="s">
         <v>832</v>
       </c>
@@ -13935,7 +13938,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="242" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="242" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A242" s="34" t="s">
         <v>834</v>
       </c>
@@ -13970,7 +13973,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="243" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="243" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A243" s="34" t="s">
         <v>837</v>
       </c>
@@ -14005,7 +14008,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="244" spans="1:11" s="23" customFormat="1" ht="210" hidden="1">
+    <row r="244" spans="1:11" s="23" customFormat="1" ht="210">
       <c r="A244" s="34" t="s">
         <v>840</v>
       </c>
@@ -14040,7 +14043,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="245" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="245" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A245" s="34" t="s">
         <v>842</v>
       </c>
@@ -14075,7 +14078,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="246" spans="1:11" s="23" customFormat="1" ht="112" hidden="1">
+    <row r="246" spans="1:11" s="23" customFormat="1" ht="112">
       <c r="A246" s="34" t="s">
         <v>845</v>
       </c>
@@ -14145,7 +14148,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="248" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="248" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A248" s="34" t="s">
         <v>850</v>
       </c>
@@ -14180,7 +14183,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="249" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="249" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A249" s="34" t="s">
         <v>853</v>
       </c>
@@ -14215,7 +14218,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="250" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="250" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A250" s="34" t="s">
         <v>856</v>
       </c>
@@ -14250,7 +14253,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="251" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="251" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A251" s="34" t="s">
         <v>859</v>
       </c>
@@ -14285,7 +14288,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="252" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="252" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A252" s="34" t="s">
         <v>861</v>
       </c>
@@ -14320,7 +14323,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="253" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="253" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A253" s="34" t="s">
         <v>863</v>
       </c>
@@ -14355,7 +14358,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="254" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="254" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A254" s="34" t="s">
         <v>865</v>
       </c>
@@ -14390,7 +14393,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="255" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="255" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A255" s="34" t="s">
         <v>867</v>
       </c>
@@ -14425,7 +14428,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="256" spans="1:11" s="23" customFormat="1" ht="252" hidden="1">
+    <row r="256" spans="1:11" s="23" customFormat="1" ht="252">
       <c r="A256" s="34" t="s">
         <v>869</v>
       </c>
@@ -14460,7 +14463,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="257" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="257" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A257" s="34" t="s">
         <v>872</v>
       </c>
@@ -14495,7 +14498,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="258" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="258" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A258" s="34" t="s">
         <v>874</v>
       </c>
@@ -14530,7 +14533,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="259" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="259" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A259" s="34" t="s">
         <v>877</v>
       </c>
@@ -14600,7 +14603,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="261" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="261" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A261" s="34" t="s">
         <v>883</v>
       </c>
@@ -14635,7 +14638,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="262" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="262" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A262" s="34" t="s">
         <v>886</v>
       </c>
@@ -14670,7 +14673,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="263" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="263" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A263" s="34" t="s">
         <v>888</v>
       </c>
@@ -14705,7 +14708,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="264" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="264" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A264" s="34" t="s">
         <v>892</v>
       </c>
@@ -14740,7 +14743,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="265" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="265" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A265" s="34" t="s">
         <v>896</v>
       </c>
@@ -14915,7 +14918,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="270" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="270" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A270" s="34" t="s">
         <v>913</v>
       </c>
@@ -15195,7 +15198,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="278" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="278" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A278" s="34" t="s">
         <v>940</v>
       </c>
@@ -15230,7 +15233,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="279" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="279" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A279" s="34" t="s">
         <v>944</v>
       </c>
@@ -15265,7 +15268,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="280" spans="1:11" s="23" customFormat="1" ht="168" hidden="1">
+    <row r="280" spans="1:11" s="23" customFormat="1" ht="168">
       <c r="A280" s="34" t="s">
         <v>948</v>
       </c>
@@ -15300,7 +15303,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="281" spans="1:11" s="23" customFormat="1" ht="154" hidden="1">
+    <row r="281" spans="1:11" s="23" customFormat="1" ht="154">
       <c r="A281" s="34" t="s">
         <v>951</v>
       </c>
@@ -15335,7 +15338,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="282" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="282" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A282" s="34" t="s">
         <v>953</v>
       </c>
@@ -15370,7 +15373,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="283" spans="1:11" s="23" customFormat="1" ht="14" hidden="1">
+    <row r="283" spans="1:11" s="23" customFormat="1" ht="14">
       <c r="A283" s="34" t="s">
         <v>956</v>
       </c>
@@ -15405,7 +15408,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="284" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="284" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A284" s="34" t="s">
         <v>959</v>
       </c>
@@ -15440,7 +15443,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="285" spans="1:11" s="32" customFormat="1" ht="98" hidden="1">
+    <row r="285" spans="1:11" s="32" customFormat="1" ht="98">
       <c r="A285" s="34" t="s">
         <v>962</v>
       </c>
@@ -15475,7 +15478,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="286" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="286" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A286" s="34" t="s">
         <v>965</v>
       </c>
@@ -15510,7 +15513,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="287" spans="1:11" s="23" customFormat="1" ht="126" hidden="1">
+    <row r="287" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A287" s="34" t="s">
         <v>967</v>
       </c>
@@ -15545,7 +15548,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="288" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="288" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A288" s="34" t="s">
         <v>969</v>
       </c>
@@ -15580,7 +15583,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="289" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="289" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A289" s="34" t="s">
         <v>972</v>
       </c>
@@ -15615,7 +15618,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="290" spans="1:11" s="23" customFormat="1" ht="196" hidden="1">
+    <row r="290" spans="1:11" s="23" customFormat="1" ht="196">
       <c r="A290" s="34" t="s">
         <v>975</v>
       </c>
@@ -15650,7 +15653,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="291" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="291" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A291" s="34" t="s">
         <v>977</v>
       </c>
@@ -15755,7 +15758,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="294" spans="1:11" s="23" customFormat="1" ht="322" hidden="1">
+    <row r="294" spans="1:11" s="23" customFormat="1" ht="322">
       <c r="A294" s="33" t="s">
         <v>984</v>
       </c>
@@ -15790,7 +15793,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="295" spans="1:11" s="23" customFormat="1" ht="280" hidden="1">
+    <row r="295" spans="1:11" s="23" customFormat="1" ht="280">
       <c r="A295" s="33" t="s">
         <v>987</v>
       </c>
@@ -15825,7 +15828,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="296" spans="1:11" s="23" customFormat="1" ht="168" hidden="1">
+    <row r="296" spans="1:11" s="23" customFormat="1" ht="168">
       <c r="A296" s="33" t="s">
         <v>990</v>
       </c>
@@ -15860,7 +15863,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="297" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="297" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A297" s="33" t="s">
         <v>993</v>
       </c>
@@ -15895,7 +15898,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="298" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="298" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A298" s="33" t="s">
         <v>996</v>
       </c>
@@ -15930,7 +15933,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="299" spans="1:11" s="23" customFormat="1" ht="126" hidden="1">
+    <row r="299" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A299" s="34" t="s">
         <v>999</v>
       </c>
@@ -15965,7 +15968,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="300" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="300" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A300" s="34" t="s">
         <v>1001</v>
       </c>
@@ -16070,7 +16073,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="303" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="303" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A303" s="34" t="s">
         <v>1011</v>
       </c>
@@ -16280,7 +16283,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="309" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="309" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A309" s="34" t="s">
         <v>1030</v>
       </c>
@@ -16315,7 +16318,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="310" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="310" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A310" s="34" t="s">
         <v>1034</v>
       </c>
@@ -16385,7 +16388,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="312" spans="1:11" s="23" customFormat="1" ht="224" hidden="1">
+    <row r="312" spans="1:11" s="23" customFormat="1" ht="224">
       <c r="A312" s="33" t="s">
         <v>1042</v>
       </c>
@@ -16420,7 +16423,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="313" spans="1:11" s="23" customFormat="1" ht="126.75" hidden="1" customHeight="1">
+    <row r="313" spans="1:11" s="23" customFormat="1" ht="126.75" customHeight="1">
       <c r="A313" s="34" t="s">
         <v>1046</v>
       </c>
@@ -16455,7 +16458,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="314" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="314" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A314" s="34" t="s">
         <v>1048</v>
       </c>
@@ -16490,7 +16493,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="315" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="315" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A315" s="34" t="s">
         <v>1050</v>
       </c>
@@ -16560,7 +16563,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="317" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="317" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A317" s="34" t="s">
         <v>1054</v>
       </c>
@@ -16595,7 +16598,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="318" spans="1:11" s="32" customFormat="1" ht="42" hidden="1">
+    <row r="318" spans="1:11" s="32" customFormat="1" ht="42">
       <c r="A318" s="34" t="s">
         <v>1057</v>
       </c>
@@ -16630,7 +16633,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="319" spans="1:11" s="32" customFormat="1" ht="70" hidden="1">
+    <row r="319" spans="1:11" s="32" customFormat="1" ht="70">
       <c r="A319" s="33" t="s">
         <v>1060</v>
       </c>
@@ -16700,7 +16703,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="321" spans="1:11" s="32" customFormat="1" ht="70" hidden="1">
+    <row r="321" spans="1:11" s="32" customFormat="1" ht="70">
       <c r="A321" s="34" t="s">
         <v>1069</v>
       </c>
@@ -16735,7 +16738,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="322" spans="1:11" s="32" customFormat="1" ht="84" hidden="1">
+    <row r="322" spans="1:11" s="32" customFormat="1" ht="84">
       <c r="A322" s="34" t="s">
         <v>1073</v>
       </c>
@@ -16770,7 +16773,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="323" spans="1:11" s="23" customFormat="1" ht="112" hidden="1">
+    <row r="323" spans="1:11" s="23" customFormat="1" ht="112">
       <c r="A323" s="34" t="s">
         <v>1075</v>
       </c>
@@ -16805,7 +16808,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="324" spans="1:11" s="23" customFormat="1" ht="28" hidden="1">
+    <row r="324" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A324" s="34" t="s">
         <v>1077</v>
       </c>
@@ -16840,7 +16843,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="325" spans="1:11" s="32" customFormat="1" ht="42" hidden="1">
+    <row r="325" spans="1:11" s="32" customFormat="1" ht="42">
       <c r="A325" s="34" t="s">
         <v>1081</v>
       </c>
@@ -16875,7 +16878,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="326" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="326" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A326" s="34" t="s">
         <v>1083</v>
       </c>
@@ -16910,7 +16913,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="327" spans="1:11" s="23" customFormat="1" ht="70" hidden="1">
+    <row r="327" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A327" s="34" t="s">
         <v>1086</v>
       </c>
@@ -16945,7 +16948,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="328" spans="1:11" s="23" customFormat="1" ht="42" hidden="1">
+    <row r="328" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A328" s="34" t="s">
         <v>1088</v>
       </c>
@@ -16980,7 +16983,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="329" spans="1:11" s="23" customFormat="1" ht="126" hidden="1">
+    <row r="329" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A329" s="34" t="s">
         <v>1091</v>
       </c>
@@ -17015,7 +17018,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="330" spans="1:11" s="23" customFormat="1" ht="126" hidden="1">
+    <row r="330" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A330" s="34" t="s">
         <v>1094</v>
       </c>
@@ -17085,7 +17088,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="332" spans="1:11" s="23" customFormat="1" ht="98" hidden="1">
+    <row r="332" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A332" s="34" t="s">
         <v>1100</v>
       </c>
@@ -17155,7 +17158,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="334" spans="1:11" s="23" customFormat="1" ht="168" hidden="1">
+    <row r="334" spans="1:11" s="23" customFormat="1" ht="168">
       <c r="A334" s="34" t="s">
         <v>1106</v>
       </c>
@@ -17365,7 +17368,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="340" spans="1:11" s="32" customFormat="1" ht="70" hidden="1">
+    <row r="340" spans="1:11" s="32" customFormat="1" ht="70">
       <c r="A340" s="34" t="s">
         <v>1125</v>
       </c>
@@ -17400,7 +17403,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="341" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="341" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A341" s="34" t="s">
         <v>1128</v>
       </c>
@@ -17435,7 +17438,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="342" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="342" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A342" s="34" t="s">
         <v>1132</v>
       </c>
@@ -17470,7 +17473,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="343" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="343" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A343" s="34" t="s">
         <v>1136</v>
       </c>
@@ -17505,7 +17508,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="344" spans="1:11" s="23" customFormat="1" ht="112" hidden="1">
+    <row r="344" spans="1:11" s="23" customFormat="1" ht="112">
       <c r="A344" s="34" t="s">
         <v>1140</v>
       </c>
@@ -17540,7 +17543,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="345" spans="1:11" s="23" customFormat="1" ht="84" hidden="1">
+    <row r="345" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A345" s="33" t="s">
         <v>1143</v>
       </c>
@@ -17575,7 +17578,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="346" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="346" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A346" s="33" t="s">
         <v>1145</v>
       </c>
@@ -17610,7 +17613,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="347" spans="1:11" s="23" customFormat="1" ht="126" hidden="1">
+    <row r="347" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A347" s="34" t="s">
         <v>1148</v>
       </c>
@@ -17645,7 +17648,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="348" spans="1:11" s="23" customFormat="1" ht="56" hidden="1">
+    <row r="348" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A348" s="34" t="s">
         <v>1150</v>
       </c>
@@ -17680,7 +17683,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="349" spans="1:11" s="23" customFormat="1" ht="100" hidden="1" customHeight="1">
+    <row r="349" spans="1:11" s="23" customFormat="1" ht="100" customHeight="1">
       <c r="A349" s="34" t="s">
         <v>1153</v>
       </c>
@@ -17712,7 +17715,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="350" spans="1:11" s="23" customFormat="1" ht="162" hidden="1" customHeight="1">
+    <row r="350" spans="1:11" s="23" customFormat="1" ht="162" customHeight="1">
       <c r="A350" s="34" t="s">
         <v>1157</v>
       </c>
@@ -17745,18 +17748,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K350" xr:uid="{F350B451-657A-476F-A605-F8E4506FA0A6}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Solutions"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Must-have"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K350" xr:uid="{F350B451-657A-476F-A605-F8E4506FA0A6}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17828,7 +17820,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="26" customFormat="1" ht="43.5">
+    <row r="2" spans="1:11" s="26" customFormat="1" ht="42">
       <c r="A2" s="34" t="s">
         <v>492</v>
       </c>
@@ -17863,7 +17855,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="23" customFormat="1" ht="72.5">
+    <row r="3" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A3" s="34" t="s">
         <v>497</v>
       </c>
@@ -17898,7 +17890,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="23" customFormat="1" ht="43.5">
+    <row r="4" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A4" s="34" t="s">
         <v>500</v>
       </c>
@@ -17933,7 +17925,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" ht="72.5">
+    <row r="5" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A5" s="34" t="s">
         <v>503</v>
       </c>
@@ -17968,7 +17960,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="23" customFormat="1" ht="43.5">
+    <row r="6" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A6" s="34" t="s">
         <v>506</v>
       </c>
@@ -18003,7 +17995,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="23" customFormat="1" ht="29">
+    <row r="7" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A7" s="34" t="s">
         <v>509</v>
       </c>
@@ -18038,7 +18030,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="23" customFormat="1" ht="159.5">
+    <row r="8" spans="1:11" s="23" customFormat="1" ht="154">
       <c r="A8" s="34" t="s">
         <v>511</v>
       </c>
@@ -18668,7 +18660,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="23" customFormat="1" ht="56">
+    <row r="26" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A26" s="34" t="s">
         <v>559</v>
       </c>
@@ -19263,7 +19255,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="23" customFormat="1" ht="112">
+    <row r="43" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A43" s="34" t="s">
         <v>604</v>
       </c>
@@ -20665,7 +20657,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="26" customFormat="1" ht="116">
+    <row r="2" spans="1:11" s="26" customFormat="1" ht="112">
       <c r="A2" s="34" t="s">
         <v>423</v>
       </c>
@@ -20700,7 +20692,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="26" customFormat="1" ht="72.5">
+    <row r="3" spans="1:11" s="26" customFormat="1" ht="70">
       <c r="A3" s="34" t="s">
         <v>428</v>
       </c>
@@ -20735,7 +20727,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="26" customFormat="1" ht="43.5">
+    <row r="4" spans="1:11" s="26" customFormat="1" ht="42">
       <c r="A4" s="34" t="s">
         <v>431</v>
       </c>
@@ -20770,7 +20762,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="26" customFormat="1" ht="58">
+    <row r="5" spans="1:11" s="26" customFormat="1" ht="56">
       <c r="A5" s="34" t="s">
         <v>435</v>
       </c>
@@ -20805,7 +20797,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="26" customFormat="1" ht="72.5">
+    <row r="6" spans="1:11" s="26" customFormat="1" ht="56">
       <c r="A6" s="34" t="s">
         <v>438</v>
       </c>
@@ -20840,7 +20832,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="26" customFormat="1" ht="43.5">
+    <row r="7" spans="1:11" s="26" customFormat="1" ht="42">
       <c r="A7" s="34" t="s">
         <v>442</v>
       </c>
@@ -20875,7 +20867,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="26" customFormat="1" ht="58">
+    <row r="8" spans="1:11" s="26" customFormat="1" ht="56">
       <c r="A8" s="34" t="s">
         <v>445</v>
       </c>
@@ -20910,7 +20902,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="26" customFormat="1" ht="72.5">
+    <row r="9" spans="1:11" s="26" customFormat="1" ht="70">
       <c r="A9" s="34" t="s">
         <v>1038</v>
       </c>
@@ -21400,7 +21392,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" ht="84">
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A23" s="34" t="s">
         <v>131</v>
       </c>
@@ -21610,7 +21602,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="23" customFormat="1" ht="56">
+    <row r="29" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A29" s="34" t="s">
         <v>736</v>
       </c>
@@ -21960,7 +21952,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="23" customFormat="1" ht="112">
+    <row r="39" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A39" s="34" t="s">
         <v>461</v>
       </c>
@@ -27002,7 +26994,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="23" customFormat="1" ht="29">
+    <row r="2" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A2" s="33" t="s">
         <v>660</v>
       </c>
@@ -27037,7 +27029,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="23" customFormat="1" ht="87">
+    <row r="3" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A3" s="33" t="s">
         <v>674</v>
       </c>
@@ -27072,7 +27064,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="23" customFormat="1" ht="116">
+    <row r="4" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A4" s="33" t="s">
         <v>678</v>
       </c>
@@ -27142,7 +27134,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="23" customFormat="1" ht="145">
+    <row r="6" spans="1:11" s="23" customFormat="1" ht="140">
       <c r="A6" s="33" t="s">
         <v>685</v>
       </c>
@@ -27177,7 +27169,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="23" customFormat="1" ht="43.5">
+    <row r="7" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A7" s="33" t="s">
         <v>689</v>
       </c>
@@ -27212,7 +27204,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="23" customFormat="1" ht="217.5">
+    <row r="8" spans="1:11" s="23" customFormat="1" ht="210">
       <c r="A8" s="33" t="s">
         <v>694</v>
       </c>
@@ -27247,7 +27239,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" ht="87">
+    <row r="9" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A9" s="33" t="s">
         <v>696</v>
       </c>
@@ -27282,7 +27274,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="23" customFormat="1" ht="130.5">
+    <row r="10" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A10" s="33" t="s">
         <v>699</v>
       </c>
@@ -27317,7 +27309,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="32" customFormat="1" ht="217.5">
+    <row r="11" spans="1:11" s="32" customFormat="1" ht="182">
       <c r="A11" s="33" t="s">
         <v>703</v>
       </c>
@@ -27352,7 +27344,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="23" customFormat="1" ht="72.5">
+    <row r="12" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A12" s="33" t="s">
         <v>706</v>
       </c>
@@ -27387,7 +27379,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="23" customFormat="1" ht="72.5">
+    <row r="13" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A13" s="33" t="s">
         <v>821</v>
       </c>
@@ -27422,7 +27414,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="23" customFormat="1" ht="174">
+    <row r="14" spans="1:11" s="23" customFormat="1" ht="168">
       <c r="A14" s="33" t="s">
         <v>823</v>
       </c>
@@ -27457,7 +27449,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="23" customFormat="1" ht="333.5">
+    <row r="15" spans="1:11" s="23" customFormat="1" ht="294">
       <c r="A15" s="33" t="s">
         <v>984</v>
       </c>
@@ -27492,7 +27484,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="23" customFormat="1" ht="290">
+    <row r="16" spans="1:11" s="23" customFormat="1" ht="280">
       <c r="A16" s="33" t="s">
         <v>987</v>
       </c>
@@ -27527,7 +27519,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="23" customFormat="1" ht="174">
+    <row r="17" spans="1:11" s="23" customFormat="1" ht="168">
       <c r="A17" s="33" t="s">
         <v>990</v>
       </c>
@@ -27562,7 +27554,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="18" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A18" s="33" t="s">
         <v>993</v>
       </c>
@@ -27597,7 +27589,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="23" customFormat="1" ht="43.5">
+    <row r="19" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A19" s="33" t="s">
         <v>996</v>
       </c>
@@ -27667,7 +27659,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="32" customFormat="1" ht="72.5">
+    <row r="21" spans="1:11" s="32" customFormat="1" ht="70">
       <c r="A21" s="33" t="s">
         <v>1060</v>
       </c>
@@ -27702,7 +27694,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="23" customFormat="1" ht="87">
+    <row r="22" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A22" s="33" t="s">
         <v>1143</v>
       </c>
@@ -27844,7 +27836,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="26" customFormat="1" ht="58">
+    <row r="2" spans="1:11" s="26" customFormat="1" ht="56">
       <c r="A2" s="34" t="s">
         <v>55</v>
       </c>
@@ -27879,7 +27871,7 @@
         <v>45462</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="26" customFormat="1" ht="58">
+    <row r="3" spans="1:11" s="26" customFormat="1" ht="56">
       <c r="A3" s="34" t="s">
         <v>60</v>
       </c>
@@ -27984,7 +27976,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="23" customFormat="1" ht="174">
+    <row r="6" spans="1:11" s="23" customFormat="1" ht="168">
       <c r="A6" s="34" t="s">
         <v>636</v>
       </c>
@@ -28019,7 +28011,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="7" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A7" s="34" t="s">
         <v>639</v>
       </c>
@@ -28054,7 +28046,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="23" customFormat="1" ht="43.5">
+    <row r="8" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A8" s="34" t="s">
         <v>643</v>
       </c>
@@ -28089,7 +28081,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="23" customFormat="1" ht="159.5">
+    <row r="9" spans="1:11" s="23" customFormat="1" ht="154">
       <c r="A9" s="34" t="s">
         <v>647</v>
       </c>
@@ -28124,7 +28116,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="23" customFormat="1" ht="159.5">
+    <row r="10" spans="1:11" s="23" customFormat="1" ht="154">
       <c r="A10" s="34" t="s">
         <v>650</v>
       </c>
@@ -28159,7 +28151,7 @@
         <v>45441</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="23" customFormat="1" ht="130.5">
+    <row r="11" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A11" s="34" t="s">
         <v>652</v>
       </c>
@@ -28194,7 +28186,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="12" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A12" s="34" t="s">
         <v>656</v>
       </c>
@@ -28229,7 +28221,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="23" customFormat="1" ht="203">
+    <row r="13" spans="1:11" s="23" customFormat="1" ht="197">
       <c r="A13" s="34" t="s">
         <v>665</v>
       </c>
@@ -28264,7 +28256,7 @@
         <v>45489</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="14" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A14" s="34" t="s">
         <v>669</v>
       </c>
@@ -28299,7 +28291,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="23" customFormat="1" ht="72.5">
+    <row r="15" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A15" s="34" t="s">
         <v>743</v>
       </c>
@@ -28334,7 +28326,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="16" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A16" s="34" t="s">
         <v>752</v>
       </c>
@@ -28369,7 +28361,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="17" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A17" s="34" t="s">
         <v>756</v>
       </c>
@@ -28404,7 +28396,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1" ht="87">
+    <row r="18" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A18" s="34" t="s">
         <v>758</v>
       </c>
@@ -28439,7 +28431,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="23" customFormat="1" ht="72.5">
+    <row r="19" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A19" s="34" t="s">
         <v>761</v>
       </c>
@@ -28474,7 +28466,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="23" customFormat="1" ht="87">
+    <row r="20" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A20" s="34" t="s">
         <v>763</v>
       </c>
@@ -28509,7 +28501,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="23" customFormat="1" ht="101.5">
+    <row r="21" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A21" s="34" t="s">
         <v>766</v>
       </c>
@@ -28544,7 +28536,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="23" customFormat="1" ht="72.5">
+    <row r="22" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A22" s="34" t="s">
         <v>768</v>
       </c>
@@ -28579,7 +28571,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="23" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A23" s="34" t="s">
         <v>772</v>
       </c>
@@ -28614,7 +28606,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="23" customFormat="1" ht="72.5">
+    <row r="24" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A24" s="34" t="s">
         <v>774</v>
       </c>
@@ -28649,7 +28641,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="23" customFormat="1" ht="145">
+    <row r="25" spans="1:11" s="23" customFormat="1" ht="140">
       <c r="A25" s="34" t="s">
         <v>786</v>
       </c>
@@ -28684,7 +28676,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="23" customFormat="1" ht="43.5">
+    <row r="26" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A26" s="34" t="s">
         <v>788</v>
       </c>
@@ -28719,7 +28711,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="27" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A27" s="34" t="s">
         <v>790</v>
       </c>
@@ -28754,7 +28746,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="23" customFormat="1" ht="87">
+    <row r="28" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A28" s="34" t="s">
         <v>793</v>
       </c>
@@ -28789,7 +28781,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="23" customFormat="1" ht="43.5">
+    <row r="29" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A29" s="34" t="s">
         <v>795</v>
       </c>
@@ -28824,7 +28816,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="23" customFormat="1" ht="130.5">
+    <row r="30" spans="1:11" s="23" customFormat="1" ht="126">
       <c r="A30" s="34" t="s">
         <v>797</v>
       </c>
@@ -28859,7 +28851,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="31" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A31" s="34" t="s">
         <v>806</v>
       </c>
@@ -28894,7 +28886,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="23" customFormat="1" ht="246.5">
+    <row r="32" spans="1:11" s="23" customFormat="1" ht="238">
       <c r="A32" s="34" t="s">
         <v>809</v>
       </c>
@@ -28929,7 +28921,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="23" customFormat="1" ht="174">
+    <row r="33" spans="1:11" s="23" customFormat="1" ht="168">
       <c r="A33" s="34" t="s">
         <v>811</v>
       </c>
@@ -30010,7 +30002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="2" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A2" s="34" t="s">
         <v>719</v>
       </c>
@@ -30045,7 +30037,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="3" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A3" s="34" t="s">
         <v>723</v>
       </c>
@@ -30080,7 +30072,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="23" customFormat="1" ht="72.5">
+    <row r="4" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A4" s="34" t="s">
         <v>726</v>
       </c>
@@ -30115,7 +30107,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="5" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A5" s="34" t="s">
         <v>730</v>
       </c>
@@ -30150,7 +30142,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="6" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A6" s="34" t="s">
         <v>799</v>
       </c>
@@ -30261,7 +30253,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="2" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A2" s="34" t="s">
         <v>708</v>
       </c>
@@ -30296,7 +30288,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="23" customFormat="1" ht="43.5">
+    <row r="3" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A3" s="34" t="s">
         <v>713</v>
       </c>
@@ -30331,7 +30323,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="23" customFormat="1" ht="29">
+    <row r="4" spans="1:11" s="23" customFormat="1" ht="28">
       <c r="A4" s="34" t="s">
         <v>716</v>
       </c>
@@ -30366,7 +30358,7 @@
         <v>45398</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="23" customFormat="1" ht="58">
+    <row r="5" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A5" s="34" t="s">
         <v>802</v>
       </c>
@@ -30451,6 +30443,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6717ce1b-cc4a-468b-9c34-18b114a855a9" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a" xsi:nil="true"/>
+    <ProjectLead xmlns="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -30459,7 +30464,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004AE98AAE3062E54F9C1BA6EFC65CB3FB" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b0a487c1dfc1c1124278eb1c4b1196c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a" xmlns:ns3="6717ce1b-cc4a-468b-9c34-18b114a855a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98c8eab544590ed2894be931607d1254" ns2:_="" ns3:_="">
     <xsd:import namespace="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a"/>
@@ -30722,20 +30727,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6717ce1b-cc4a-468b-9c34-18b114a855a9" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a" xsi:nil="true"/>
-    <ProjectLead xmlns="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C14EC51-DBD4-4526-8D53-91D0968A50FA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="6717ce1b-cc4a-468b-9c34-18b114a855a9"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3ADDCC-2596-4626-A3CD-C04D88ED948B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -30743,7 +30752,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{556F0BBB-3C78-4F07-A542-6140A1ACE778}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30760,21 +30769,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C14EC51-DBD4-4526-8D53-91D0968A50FA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="6717ce1b-cc4a-468b-9c34-18b114a855a9"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Digital Services Request for Proposal/RfP Pack/Schedule 1 - Annex B – Detailed Requirements.xlsx
+++ b/Digital Services Request for Proposal/RfP Pack/Schedule 1 - Annex B – Detailed Requirements.xlsx
@@ -5482,8 +5482,8 @@
   <dimension ref="A1:R350"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39:H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1"/>
@@ -7288,7 +7288,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="23" customFormat="1" ht="98">
+    <row r="52" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A52" s="34" t="s">
         <v>214</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="23" customFormat="1" ht="84">
+    <row r="58" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A58" s="34" t="s">
         <v>238</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="23" customFormat="1" ht="70">
+    <row r="113" spans="1:11" s="23" customFormat="1" ht="56">
       <c r="A113" s="34" t="s">
         <v>438</v>
       </c>
@@ -9633,7 +9633,7 @@
         <v>45488</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="23" customFormat="1" ht="112">
+    <row r="119" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A119" s="34" t="s">
         <v>461</v>
       </c>
@@ -10718,7 +10718,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="23" customFormat="1" ht="56">
+    <row r="150" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A150" s="34" t="s">
         <v>559</v>
       </c>
@@ -11243,7 +11243,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="165" spans="1:11" s="23" customFormat="1" ht="112">
+    <row r="165" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A165" s="34" t="s">
         <v>604</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="186" spans="1:11" s="23" customFormat="1" ht="84">
+    <row r="186" spans="1:11" s="23" customFormat="1" ht="70">
       <c r="A186" s="33" t="s">
         <v>674</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="194" spans="1:11" s="32" customFormat="1" ht="196">
+    <row r="194" spans="1:11" s="32" customFormat="1" ht="182">
       <c r="A194" s="33" t="s">
         <v>703</v>
       </c>
@@ -12328,7 +12328,7 @@
         <v>45457</v>
       </c>
     </row>
-    <row r="196" spans="1:11" s="23" customFormat="1" ht="56">
+    <row r="196" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A196" s="34" t="s">
         <v>708</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="204" spans="1:11" s="23" customFormat="1" ht="56">
+    <row r="204" spans="1:11" s="23" customFormat="1" ht="42">
       <c r="A204" s="34" t="s">
         <v>736</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="205" spans="1:11" s="23" customFormat="1" ht="126">
+    <row r="205" spans="1:11" s="23" customFormat="1" ht="112">
       <c r="A205" s="34" t="s">
         <v>738</v>
       </c>
@@ -15583,7 +15583,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="289" spans="1:11" s="23" customFormat="1" ht="98">
+    <row r="289" spans="1:11" s="23" customFormat="1" ht="84">
       <c r="A289" s="34" t="s">
         <v>972</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>45456</v>
       </c>
     </row>
-    <row r="294" spans="1:11" s="23" customFormat="1" ht="322">
+    <row r="294" spans="1:11" s="23" customFormat="1" ht="308">
       <c r="A294" s="33" t="s">
         <v>984</v>
       </c>
@@ -29796,7 +29796,7 @@
         <v>45463</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="23" customFormat="1" ht="112">
+    <row r="58" spans="1:11" s="23" customFormat="1" ht="98">
       <c r="A58" s="34" t="s">
         <v>1140</v>
       </c>
@@ -30456,15 +30456,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004AE98AAE3062E54F9C1BA6EFC65CB3FB" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b0a487c1dfc1c1124278eb1c4b1196c9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a" xmlns:ns3="6717ce1b-cc4a-468b-9c34-18b114a855a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98c8eab544590ed2894be931607d1254" ns2:_="" ns3:_="">
     <xsd:import namespace="ba0c55fe-5969-4f98-9e30-4f3b3df9a75a"/>
@@ -30727,6 +30718,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C14EC51-DBD4-4526-8D53-91D0968A50FA}">
   <ds:schemaRefs>
@@ -30745,14 +30745,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3ADDCC-2596-4626-A3CD-C04D88ED948B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{556F0BBB-3C78-4F07-A542-6140A1ACE778}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30769,4 +30761,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F3ADDCC-2596-4626-A3CD-C04D88ED948B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>